--- a/output_execution.xlsx
+++ b/output_execution.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -385,10 +385,10 @@
         <v>0.2528212528212528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3524744447340225</v>
+        <v>0.1969643111047917</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3524744447340225</v>
+        <v>0.2025434021576052</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.3944011544011544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4869286928692869</v>
+        <v>0.2216621662166217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4869286928692869</v>
+        <v>0.2268226822682268</v>
       </c>
     </row>
     <row r="4">
@@ -417,10 +417,10 @@
         <v>0.7540200400801603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7179438877755511</v>
+        <v>0.6629458917835671</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7179438877755511</v>
+        <v>0.666120240480962</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>0.3157736435642599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4142824165278624</v>
+        <v>0.2089486440895292</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4142824165278624</v>
+        <v>0.2143395384737034</v>
       </c>
     </row>
     <row r="6">
@@ -449,10 +449,10 @@
         <v>0.3262092508475678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07720970499115792</v>
+        <v>0.09507662387145445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07720970499115792</v>
+        <v>0.08035551937185671</v>
       </c>
     </row>
   </sheetData>

--- a/output_execution.xlsx
+++ b/output_execution.xlsx
@@ -385,10 +385,10 @@
         <v>0.2528212528212528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1969643111047917</v>
+        <v>0.200485908649174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2025434021576052</v>
+        <v>0.1988614968879438</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.3944011544011544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2216621662166217</v>
+        <v>0.2475847584758476</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2268226822682268</v>
+        <v>0.3591559155915592</v>
       </c>
     </row>
     <row r="4">
@@ -417,10 +417,10 @@
         <v>0.7540200400801603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6629458917835671</v>
+        <v>0.6513867735470942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.666120240480962</v>
+        <v>0.5816553106212425</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>0.3157736435642599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2089486440895292</v>
+        <v>0.2227941993650566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2143395384737034</v>
+        <v>0.2672494770634686</v>
       </c>
     </row>
     <row r="6">
@@ -449,10 +449,10 @@
         <v>0.3262092508475678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09507662387145445</v>
+        <v>0.06957777415244475</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08035551937185671</v>
+        <v>0.0949030241869849</v>
       </c>
     </row>
   </sheetData>
